--- a/CD_P1_2025.xlsx
+++ b/CD_P1_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ano_2025S1\CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9116199E-43C2-48F7-8852-3AF63366AD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02008DE8-2C30-4590-BDC0-669B6AF8CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="IMPAR" sheetId="2" r:id="rId3"/>
     <sheet name="Ex1" sheetId="4" r:id="rId4"/>
     <sheet name="Ex2" sheetId="3" r:id="rId5"/>
+    <sheet name="e-mails" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ex1'!$A$1:$AS$42</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="594">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1726,6 +1727,135 @@
   </si>
   <si>
     <t>P1</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>IZABEL SAMPAIO GOES PEDREIRA LAPA</t>
+  </si>
+  <si>
+    <t>LUCAS MIGUEL DE MATOS NEGRI</t>
+  </si>
+  <si>
+    <t>LARISSA NAVARRO PIZARRO</t>
+  </si>
+  <si>
+    <t>BRUNO BOSA LOPES</t>
+  </si>
+  <si>
+    <t>VINICIUS URIAS DA CRUZ</t>
+  </si>
+  <si>
+    <t>RAFAEL RUBIO CARNES</t>
+  </si>
+  <si>
+    <t>GABRIEL BIANCONI</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO MATIAS DA COSTA</t>
+  </si>
+  <si>
+    <t>MATHEUS IGINO MACHADO</t>
+  </si>
+  <si>
+    <t>EDUARDO LUCAS FELIPPA</t>
+  </si>
+  <si>
+    <t>KAIVEN YANG SU</t>
+  </si>
+  <si>
+    <t>BRUNO AUGUSTO LOPES FEVEREIRO</t>
+  </si>
+  <si>
+    <t>FELIPE RODRIGUES PEIXOTO DA SILVA</t>
+  </si>
+  <si>
+    <t>ENZO YUJI SAKAMOTO</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA PINHO GARCIA</t>
+  </si>
+  <si>
+    <t>RAPHAEL FERNANDES RAYMUNDO</t>
+  </si>
+  <si>
+    <t>NICOLE MARTINS FRAGNAN</t>
+  </si>
+  <si>
+    <t>JOAO PEDRO SOARES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CESAR FUKUSHIMA KIM BRESCIANI</t>
+  </si>
+  <si>
+    <t>ANTONIO MACEDO FERRITE</t>
+  </si>
+  <si>
+    <t>ERICK EIJI NAGAO</t>
+  </si>
+  <si>
+    <t>RYUSKE HIDEAKI SATO</t>
+  </si>
+  <si>
+    <t>CARLOS AUGUSTO FREIRE MAIA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>PEDRO HENRIQUE DE SOUSA MATUMOTO</t>
+  </si>
+  <si>
+    <t>IGOR IMPROTA MARTINEZ DA SILVA</t>
+  </si>
+  <si>
+    <t>CAIO MONTES CORREIA</t>
+  </si>
+  <si>
+    <t>JOAO VITOR CHOUERI BRANCO</t>
+  </si>
+  <si>
+    <t>FLAVIO MURATA</t>
+  </si>
+  <si>
+    <t>NATHAN ZANONI DA HORA</t>
+  </si>
+  <si>
+    <t>VINICIUS DE OLIVEIRA BERTI</t>
+  </si>
+  <si>
+    <t>GABRIEL HENRIQUE BACA RADO</t>
+  </si>
+  <si>
+    <t>GABRIEL ZENDRON ALLIEVI</t>
+  </si>
+  <si>
+    <t>VITOR GUIRAO SOLLER</t>
+  </si>
+  <si>
+    <t>ENZO LEONARDO SABATELLI DE MOURA</t>
+  </si>
+  <si>
+    <t>JOAO PAULO DE SOUZA RODRIGUES</t>
+  </si>
+  <si>
+    <t>ANDRE LUCAS GOIS SOARES</t>
+  </si>
+  <si>
+    <t>JULIA GALHARDI CERQUEIRA</t>
+  </si>
+  <si>
+    <t>PEDRO GUERRA JUDICE MESQUITA</t>
+  </si>
+  <si>
+    <t>ENZO DE BRITTO SUANNES PUCCI</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1866,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1815,6 +1945,29 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2130,10 +2283,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2356,8 +2510,20 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -2899,7 +3065,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:U23">
-  <autoFilter ref="A1:U23" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <autoFilter ref="A1:U23" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="12633"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U23">
     <sortCondition ref="C1:C23"/>
   </sortState>
@@ -2936,7 +3108,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7AF40366-8C45-4D19-95B3-44C15A82E197}" name="Form_Responses13" displayName="Form_Responses13" ref="A1:U17">
-  <autoFilter ref="A1:U17" xr:uid="{7AF40366-8C45-4D19-95B3-44C15A82E197}"/>
+  <autoFilter ref="A1:U17" xr:uid="{7AF40366-8C45-4D19-95B3-44C15A82E197}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="17838"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U17">
     <sortCondition ref="C1:C17"/>
   </sortState>
@@ -3169,10 +3347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DED7A69-553F-4840-BDB5-5C92623A5DCE}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3186,7 +3364,7 @@
     <col min="7" max="8" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
@@ -3212,7 +3390,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>147</v>
       </c>
@@ -3231,15 +3409,15 @@
       <c r="F2" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="57">
-        <v>5</v>
+      <c r="G2" s="79">
+        <v>0</v>
       </c>
       <c r="H2" s="72">
         <f>(E2+G2)/2</f>
-        <v>6.1666666666666661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
         <v>38</v>
       </c>
@@ -3266,7 +3444,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>130</v>
       </c>
@@ -3293,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="69" t="s">
         <v>247</v>
       </c>
@@ -3317,10 +3495,10 @@
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="52"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="20"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="67" t="s">
         <v>232</v>
       </c>
@@ -3345,7 +3523,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
         <v>21</v>
       </c>
@@ -3372,7 +3550,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="56" t="s">
         <v>44</v>
       </c>
@@ -3399,7 +3577,7 @@
         <v>6.6666666666666661</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="58" t="s">
         <v>75</v>
       </c>
@@ -3424,7 +3602,7 @@
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
         <v>197</v>
       </c>
@@ -3451,7 +3629,7 @@
         <v>4.8333333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="58" t="s">
         <v>92</v>
       </c>
@@ -3478,7 +3656,7 @@
         <v>6.8166666666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="56" t="s">
         <v>209</v>
       </c>
@@ -3505,7 +3683,7 @@
         <v>5.1666666666666661</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="58" t="s">
         <v>56</v>
       </c>
@@ -3532,7 +3710,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
         <v>179</v>
       </c>
@@ -3559,15 +3737,15 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="69" t="s">
         <v>203</v>
       </c>
       <c r="B15" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="74">
-        <v>4.2857142857142856</v>
+      <c r="C15" s="80">
+        <v>5.7</v>
       </c>
       <c r="D15" s="71" t="s">
         <v>203</v>
@@ -3586,7 +3764,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="56" t="s">
         <v>226</v>
       </c>
@@ -4283,8 +4461,8 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F23"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4365,7 +4543,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45757.764765798609</v>
       </c>
@@ -4477,7 +4655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45757.761845659727</v>
       </c>
@@ -4532,7 +4710,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45757.763415428242</v>
       </c>
@@ -4660,7 +4838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45757.767280138884</v>
       </c>
@@ -4721,7 +4899,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45757.76469862269</v>
       </c>
@@ -4845,7 +5023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45757.763804837959</v>
       </c>
@@ -4902,7 +5080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>45757.767226516204</v>
       </c>
@@ -4965,7 +5143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45757.767000069449</v>
       </c>
@@ -5026,7 +5204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>45757.766134583333</v>
       </c>
@@ -5146,7 +5324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>45757.763914861112</v>
       </c>
@@ -5199,7 +5377,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45757.763641990736</v>
       </c>
@@ -5264,7 +5442,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45757.765083888888</v>
       </c>
@@ -5315,7 +5493,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45757.76736982639</v>
       </c>
@@ -5362,7 +5540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45757.767345428241</v>
       </c>
@@ -5425,7 +5603,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45757.759051180554</v>
       </c>
@@ -5551,7 +5729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45757.755979513888</v>
       </c>
@@ -5614,7 +5792,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>45757.766253449074</v>
       </c>
@@ -5708,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8F4D43-39FE-4C3F-BFD5-EE814D97B1F0}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5801,7 +5979,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
         <v>45757.768014351852</v>
       </c>
@@ -5860,7 +6038,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38">
         <v>45757.766172037038</v>
       </c>
@@ -5915,7 +6093,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <v>45757.77001847222</v>
       </c>
@@ -5974,7 +6152,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
         <v>45757.767335972225</v>
       </c>
@@ -6033,7 +6211,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <v>45757.766259224532</v>
       </c>
@@ -6113,11 +6291,11 @@
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="52">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
-        <v>4.2857142857142856</v>
+        <v>5.7142857142857135</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>14</v>
@@ -6146,7 +6324,9 @@
       <c r="Q7" s="39">
         <v>17838</v>
       </c>
-      <c r="R7" s="40"/>
+      <c r="R7" s="78">
+        <v>1</v>
+      </c>
       <c r="S7" s="39" t="s">
         <v>206</v>
       </c>
@@ -6157,7 +6337,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
         <v>45757.76540491898</v>
       </c>
@@ -6216,7 +6396,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
         <v>45757.765927337961</v>
       </c>
@@ -6271,7 +6451,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>45757.769819421301</v>
       </c>
@@ -6330,7 +6510,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
         <v>45757.764821493052</v>
       </c>
@@ -6383,7 +6563,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>45757.76087982639</v>
       </c>
@@ -6442,7 +6622,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
         <v>45757.767136192131</v>
       </c>
@@ -6499,7 +6679,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <v>45757.765474120373</v>
       </c>
@@ -6688,7 +6868,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="47">
         <v>45757.752107731481</v>
       </c>
@@ -6773,8 +6953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EB8C0C-73A3-4984-A9C8-AA35FE716E3B}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6927,11 +7107,11 @@
         <v>148</v>
       </c>
       <c r="E2" s="20">
-        <f>SUM(H2,J2,L2,N2,P2,R2,T2,V2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2)</f>
+        <f t="shared" ref="E2:E41" si="0">SUM(H2,J2,L2,N2,P2,R2,T2,V2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2)</f>
         <v>11</v>
       </c>
       <c r="F2" s="52">
-        <f>E2/15*10</f>
+        <f t="shared" ref="F2:F41" si="1">E2/15*10</f>
         <v>7.333333333333333</v>
       </c>
       <c r="G2" t="s">
@@ -7036,11 +7216,11 @@
         <v>39</v>
       </c>
       <c r="E3" s="20">
-        <f>SUM(H3,J3,L3,N3,P3,R3,T3,V3,Z3,AB3,AD3,AF3,AH3,AJ3,AL3)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F3" s="52">
-        <f>E3/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G3" t="s">
@@ -7142,11 +7322,11 @@
         <v>20021940</v>
       </c>
       <c r="E4" s="20">
-        <f>SUM(H4,J4,L4,N4,P4,R4,T4,V4,Z4,AB4,AD4,AF4,AH4,AJ4,AL4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F4" s="52">
-        <f>E4/15*10</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
       <c r="G4" t="s">
@@ -7242,11 +7422,11 @@
         <v>248</v>
       </c>
       <c r="E5" s="20">
-        <f>SUM(H5,J5,L5,N5,P5,R5,T5,V5,Z5,AB5,AD5,AF5,AH5,AJ5,AL5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F5" s="52">
-        <f>E5/15*10</f>
+        <f t="shared" si="1"/>
         <v>7.333333333333333</v>
       </c>
       <c r="G5" t="s">
@@ -7351,11 +7531,11 @@
         <v>233</v>
       </c>
       <c r="E6" s="20">
-        <f>SUM(H6,J6,L6,N6,P6,R6,T6,V6,Z6,AB6,AD6,AF6,AH6,AJ6,AL6)</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="F6" s="52">
-        <f>E6/15*10</f>
+        <f t="shared" si="1"/>
         <v>7.666666666666667</v>
       </c>
       <c r="G6" t="s">
@@ -7463,11 +7643,11 @@
         <v>22</v>
       </c>
       <c r="E7" s="20">
-        <f>SUM(H7,J7,L7,N7,P7,R7,T7,V7,Z7,AB7,AD7,AF7,AH7,AJ7,AL7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F7" s="52">
-        <f>E7/15*10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G7" t="s">
@@ -7557,11 +7737,11 @@
         <v>279</v>
       </c>
       <c r="E8" s="20">
-        <f>SUM(H8,J8,L8,N8,P8,R8,T8,V8,Z8,AB8,AD8,AF8,AH8,AJ8,AL8)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F8" s="52">
-        <f>E8/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G8" t="s">
@@ -7663,11 +7843,11 @@
         <v>76</v>
       </c>
       <c r="E9" s="20">
-        <f>SUM(H9,J9,L9,N9,P9,R9,T9,V9,Z9,AB9,AD9,AF9,AH9,AJ9,AL9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F9" s="52">
-        <f>E9/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G9" t="s">
@@ -7769,11 +7949,11 @@
         <v>198</v>
       </c>
       <c r="E10" s="20">
-        <f>SUM(H10,J10,L10,N10,P10,R10,T10,V10,Z10,AB10,AD10,AF10,AH10,AJ10,AL10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F10" s="52">
-        <f>E10/15*10</f>
+        <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
       <c r="G10" t="s">
@@ -7866,11 +8046,11 @@
         <v>210</v>
       </c>
       <c r="E11" s="20">
-        <f>SUM(H11,J11,L11,N11,P11,R11,T11,V11,Z11,AB11,AD11,AF11,AH11,AJ11,AL11)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F11" s="52">
-        <f>E11/15*10</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
       <c r="G11" t="s">
@@ -7966,11 +8146,11 @@
         <v>93</v>
       </c>
       <c r="E12" s="20">
-        <f>SUM(H12,J12,L12,N12,P12,R12,T12,V12,Z12,AB12,AD12,AF12,AH12,AJ12,AL12)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F12" s="52">
-        <f>E12/15*10</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
       <c r="G12" t="s">
@@ -8048,7 +8228,7 @@
       <c r="AL12" s="20">
         <v>1</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AM12" s="77" t="s">
         <v>511</v>
       </c>
     </row>
@@ -8066,11 +8246,11 @@
         <v>57</v>
       </c>
       <c r="E13" s="20">
-        <f>SUM(H13,J13,L13,N13,P13,R13,T13,V13,Z13,AB13,AD13,AF13,AH13,AJ13,AL13)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F13" s="52">
-        <f>E13/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G13" t="s">
@@ -8172,11 +8352,11 @@
         <v>180</v>
       </c>
       <c r="E14" s="20">
-        <f>SUM(H14,J14,L14,N14,P14,R14,T14,V14,Z14,AB14,AD14,AF14,AH14,AJ14,AL14)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F14" s="52">
-        <f>E14/15*10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G14" t="s">
@@ -8275,11 +8455,11 @@
         <v>204</v>
       </c>
       <c r="E15" s="20">
-        <f>SUM(H15,J15,L15,N15,P15,R15,T15,V15,Z15,AB15,AD15,AF15,AH15,AJ15,AL15)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F15" s="52">
-        <f>E15/15*10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G15" t="s">
@@ -8372,11 +8552,11 @@
         <v>227</v>
       </c>
       <c r="E16" s="20">
-        <f>SUM(H16,J16,L16,N16,P16,R16,T16,V16,Z16,AB16,AD16,AF16,AH16,AJ16,AL16)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F16" s="52">
-        <f>E16/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G16" t="s">
@@ -8478,11 +8658,11 @@
         <v>297</v>
       </c>
       <c r="E17" s="20">
-        <f>SUM(H17,J17,L17,N17,P17,R17,T17,V17,Z17,AB17,AD17,AF17,AH17,AJ17,AL17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F17" s="52">
-        <f>E17/15*10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G17" t="s">
@@ -8572,11 +8752,11 @@
         <v>13</v>
       </c>
       <c r="E18" s="20">
-        <f>SUM(H18,J18,L18,N18,P18,R18,T18,V18,Z18,AB18,AD18,AF18,AH18,AJ18,AL18)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F18" s="52">
-        <f>E18/15*10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G18" t="s">
@@ -8666,11 +8846,11 @@
         <v>65</v>
       </c>
       <c r="E19" s="20">
-        <f>SUM(H19,J19,L19,N19,P19,R19,T19,V19,Z19,AB19,AD19,AF19,AH19,AJ19,AL19)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F19" s="52">
-        <f>E19/15*10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G19" t="s">
@@ -8769,11 +8949,11 @@
         <v>81</v>
       </c>
       <c r="E20" s="20">
-        <f>SUM(H20,J20,L20,N20,P20,R20,T20,V20,Z20,AB20,AD20,AF20,AH20,AJ20,AL20)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F20" s="52">
-        <f>E20/15*10</f>
+        <f t="shared" si="1"/>
         <v>7.333333333333333</v>
       </c>
       <c r="G20" t="s">
@@ -8878,11 +9058,11 @@
         <v>99</v>
       </c>
       <c r="E21" s="20">
-        <f>SUM(H21,J21,L21,N21,P21,R21,T21,V21,Z21,AB21,AD21,AF21,AH21,AJ21,AL21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F21" s="52">
-        <f>E21/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G21" t="s">
@@ -8984,11 +9164,11 @@
         <v>238</v>
       </c>
       <c r="E22" s="20">
-        <f>SUM(H22,J22,L22,N22,P22,R22,T22,V22,Z22,AB22,AD22,AF22,AH22,AJ22,AL22)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F22" s="52">
-        <f>E22/15*10</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
       <c r="G22">
@@ -9084,11 +9264,11 @@
         <v>238</v>
       </c>
       <c r="E23" s="20">
-        <f>SUM(H23,J23,L23,N23,P23,R23,T23,V23,Z23,AB23,AD23,AF23,AH23,AJ23,AL23)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F23" s="52">
-        <f>E23/15*10</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
       <c r="G23">
@@ -9184,11 +9364,11 @@
         <v>31</v>
       </c>
       <c r="E24" s="20">
-        <f>SUM(H24,J24,L24,N24,P24,R24,T24,V24,Z24,AB24,AD24,AF24,AH24,AJ24,AL24)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F24" s="52">
-        <f>E24/15*10</f>
+        <f t="shared" si="1"/>
         <v>7.333333333333333</v>
       </c>
       <c r="G24" t="s">
@@ -9293,11 +9473,11 @@
         <v>221</v>
       </c>
       <c r="E25" s="20">
-        <f>SUM(H25,J25,L25,N25,P25,R25,T25,V25,Z25,AB25,AD25,AF25,AH25,AJ25,AL25)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F25" s="52">
-        <f>E25/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G25" t="s">
@@ -9399,11 +9579,11 @@
         <v>255</v>
       </c>
       <c r="E26" s="20">
-        <f>SUM(H26,J26,L26,N26,P26,R26,T26,V26,Z26,AB26,AD26,AF26,AH26,AJ26,AL26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F26" s="52">
-        <f>E26/15*10</f>
+        <f t="shared" si="1"/>
         <v>3.333333333333333</v>
       </c>
       <c r="G26" t="s">
@@ -9490,11 +9670,11 @@
         <v>105</v>
       </c>
       <c r="E27" s="20">
-        <f>SUM(H27,J27,L27,N27,P27,R27,T27,V27,Z27,AB27,AD27,AF27,AH27,AJ27,AL27)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F27" s="52">
-        <f>E27/15*10</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G27" t="s">
@@ -9602,11 +9782,11 @@
         <v>87</v>
       </c>
       <c r="E28" s="20">
-        <f>SUM(H28,J28,L28,N28,P28,R28,T28,V28,Z28,AB28,AD28,AF28,AH28,AJ28,AL28)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F28" s="52">
-        <f>E28/15*10</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
       <c r="G28" t="s">
@@ -9705,11 +9885,11 @@
         <v>141</v>
       </c>
       <c r="E29" s="20">
-        <f>SUM(H29,J29,L29,N29,P29,R29,T29,V29,Z29,AB29,AD29,AF29,AH29,AJ29,AL29)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F29" s="52">
-        <f>E29/15*10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G29">
@@ -9799,11 +9979,11 @@
         <v>135</v>
       </c>
       <c r="E30" s="20">
-        <f>SUM(H30,J30,L30,N30,P30,R30,T30,V30,Z30,AB30,AD30,AF30,AH30,AJ30,AL30)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F30" s="52">
-        <f>E30/15*10</f>
+        <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
       <c r="G30" t="s">
@@ -9896,11 +10076,11 @@
         <v>174</v>
       </c>
       <c r="E31" s="20">
-        <f>SUM(H31,J31,L31,N31,P31,R31,T31,V31,Z31,AB31,AD31,AF31,AH31,AJ31,AL31)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F31" s="52">
-        <f>E31/15*10</f>
+        <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
       <c r="G31" t="s">
@@ -9993,11 +10173,11 @@
         <v>321</v>
       </c>
       <c r="E32" s="20">
-        <f>SUM(H32,J32,L32,N32,P32,R32,T32,V32,Z32,AB32,AD32,AF32,AH32,AJ32,AL32)</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="F32" s="52">
-        <f>E32/15*10</f>
+        <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="G32" t="s">
@@ -10084,11 +10264,11 @@
         <v>118</v>
       </c>
       <c r="E33" s="20">
-        <f>SUM(H33,J33,L33,N33,P33,R33,T33,V33,Z33,AB33,AD33,AF33,AH33,AJ33,AL33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F33" s="52">
-        <f>E33/15*10</f>
+        <f t="shared" si="1"/>
         <v>3.333333333333333</v>
       </c>
       <c r="G33" t="s">
@@ -10178,11 +10358,11 @@
         <v>167</v>
       </c>
       <c r="E34" s="20">
-        <f>SUM(H34,J34,L34,N34,P34,R34,T34,V34,Z34,AB34,AD34,AF34,AH34,AJ34,AL34)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F34" s="52">
-        <f>E34/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G34" t="s">
@@ -10284,11 +10464,11 @@
         <v>71</v>
       </c>
       <c r="E35" s="20">
-        <f>SUM(H35,J35,L35,N35,P35,R35,T35,V35,Z35,AB35,AD35,AF35,AH35,AJ35,AL35)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F35" s="52">
-        <f>E35/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G35" t="s">
@@ -10390,11 +10570,11 @@
         <v>51</v>
       </c>
       <c r="E36" s="20">
-        <f>SUM(H36,J36,L36,N36,P36,R36,T36,V36,Z36,AB36,AD36,AF36,AH36,AJ36,AL36)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F36" s="52">
-        <f>E36/15*10</f>
+        <f t="shared" si="1"/>
         <v>7.333333333333333</v>
       </c>
       <c r="G36" t="s">
@@ -10499,11 +10679,11 @@
         <v>125</v>
       </c>
       <c r="E37" s="20">
-        <f>SUM(H37,J37,L37,N37,P37,R37,T37,V37,Z37,AB37,AD37,AF37,AH37,AJ37,AL37)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F37" s="52">
-        <f>E37/15*10</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G37" t="s">
@@ -10596,11 +10776,11 @@
         <v>187</v>
       </c>
       <c r="E38" s="20">
-        <f>SUM(H38,J38,L38,N38,P38,R38,T38,V38,Z38,AB38,AD38,AF38,AH38,AJ38,AL38)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F38" s="52">
-        <f>E38/15*10</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="G38" t="s">
@@ -10705,11 +10885,11 @@
         <v>192</v>
       </c>
       <c r="E39" s="20">
-        <f>SUM(H39,J39,L39,N39,P39,R39,T39,V39,Z39,AB39,AD39,AF39,AH39,AJ39,AL39)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F39" s="52">
-        <f>E39/15*10</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G39">
@@ -10817,11 +10997,11 @@
         <v>215</v>
       </c>
       <c r="E40" s="20">
-        <f>SUM(H40,J40,L40,N40,P40,R40,T40,V40,Z40,AB40,AD40,AF40,AH40,AJ40,AL40)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F40" s="52">
-        <f>E40/15*10</f>
+        <f t="shared" si="1"/>
         <v>3.333333333333333</v>
       </c>
       <c r="G40" t="s">
@@ -10911,11 +11091,11 @@
         <v>493</v>
       </c>
       <c r="E41" s="20">
-        <f>SUM(H41,J41,L41,N41,P41,R41,T41,V41,Z41,AB41,AD41,AF41,AH41,AJ41,AL41)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F41" s="52">
-        <f>E41/15*10</f>
+        <f t="shared" si="1"/>
         <v>7.333333333333333</v>
       </c>
       <c r="G41" t="s">
@@ -11012,6 +11192,9 @@
       <sortCondition ref="C1:C42"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="AM12" r:id="rId1" xr:uid="{694F7250-E087-4C1E-B66B-D3E2058C1109}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11110,7 +11293,7 @@
         <v>110522</v>
       </c>
       <c r="F2" s="20">
-        <f>SUM(H2,J2,L2,N2,P2,R2)</f>
+        <f t="shared" ref="F2:F38" si="0">SUM(H2,J2,L2,N2,P2,R2)</f>
         <v>3</v>
       </c>
       <c r="G2" s="52">
@@ -11159,11 +11342,11 @@
         <v>110522</v>
       </c>
       <c r="F3" s="20">
-        <f>SUM(H3,J3,L3,N3,P3,R3)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G3" s="52">
-        <f t="shared" ref="G3:G38" si="0">F3/6*10</f>
+        <f t="shared" ref="G3:G38" si="1">F3/6*10</f>
         <v>10</v>
       </c>
       <c r="H3" s="20">
@@ -11220,11 +11403,11 @@
         <v>110522</v>
       </c>
       <c r="F4" s="20">
-        <f>SUM(H4,J4,L4,N4,P4,R4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G4" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H4" s="20">
@@ -11275,11 +11458,11 @@
         <v>110522</v>
       </c>
       <c r="F5" s="20">
-        <f>SUM(H5,J5,L5,N5,P5,R5)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G5" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H5" s="20">
@@ -11330,11 +11513,11 @@
         <v>110522</v>
       </c>
       <c r="F6" s="20">
-        <f>SUM(H6,J6,L6,N6,P6,R6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G6" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H6" s="20">
@@ -11382,11 +11565,11 @@
         <v>110522</v>
       </c>
       <c r="F7" s="20">
-        <f>SUM(H7,J7,L7,N7,P7,R7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G7" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H7" s="20">
@@ -11425,11 +11608,11 @@
         <v>110522</v>
       </c>
       <c r="F8" s="20">
-        <f>SUM(H8,J8,L8,N8,P8,R8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G8" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H8" s="20">
@@ -11477,11 +11660,11 @@
         <v>110522</v>
       </c>
       <c r="F9" s="20">
-        <f>SUM(H9,J9,L9,N9,P9,R9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G9" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="H9" s="20">
@@ -11535,11 +11718,11 @@
         <v>110522</v>
       </c>
       <c r="F10" s="20">
-        <f>SUM(H10,J10,L10,N10,P10,R10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G10" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="H10" s="20">
@@ -11593,11 +11776,11 @@
         <v>110522</v>
       </c>
       <c r="F11" s="20">
-        <f>SUM(H11,J11,L11,N11,P11,R11)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G11" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H11" s="20">
@@ -11648,11 +11831,11 @@
         <v>110522</v>
       </c>
       <c r="F12" s="20">
-        <f>SUM(H12,J12,L12,N12,P12,R12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G12" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H12" s="20">
@@ -11703,11 +11886,11 @@
         <v>110522</v>
       </c>
       <c r="F13" s="20">
-        <f>SUM(H13,J13,L13,N13,P13,R13)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G13" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H13" s="20">
@@ -11758,11 +11941,11 @@
         <v>110522</v>
       </c>
       <c r="F14" s="20">
-        <f>SUM(H14,J14,L14,N14,P14,R14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G14" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H14" s="20">
@@ -11810,11 +11993,11 @@
         <v>110522</v>
       </c>
       <c r="F15" s="20">
-        <f>SUM(H15,J15,L15,N15,P15,R15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G15" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H15" s="20">
@@ -11865,11 +12048,11 @@
         <v>110522</v>
       </c>
       <c r="F16" s="20">
-        <f>SUM(H16,J16,L16,N16,P16,R16)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G16" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H16" s="20">
@@ -11920,11 +12103,11 @@
         <v>110522</v>
       </c>
       <c r="F17" s="20">
-        <f>SUM(H17,J17,L17,N17,P17,R17)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G17" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H17" s="20">
@@ -11975,11 +12158,11 @@
         <v>110522</v>
       </c>
       <c r="F18" s="20">
-        <f>SUM(H18,J18,L18,N18,P18,R18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G18" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H18" s="20">
@@ -12027,11 +12210,11 @@
         <v>110522</v>
       </c>
       <c r="F19" s="20">
-        <f>SUM(H19,J19,L19,N19,P19,R19)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G19" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H19" s="20">
@@ -12079,11 +12262,11 @@
         <v>110522</v>
       </c>
       <c r="F20" s="20">
-        <f>SUM(H20,J20,L20,N20,P20,R20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G20" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H20" s="20">
@@ -12125,11 +12308,11 @@
         <v>110522</v>
       </c>
       <c r="F21" s="20">
-        <f>SUM(H21,J21,L21,N21,P21,R21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G21" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="H21" s="20">
@@ -12183,11 +12366,11 @@
         <v>110522</v>
       </c>
       <c r="F22" s="20">
-        <f>SUM(H22,J22,L22,N22,P22,R22)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G22" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="H22" s="20">
@@ -12241,11 +12424,11 @@
         <v>110522</v>
       </c>
       <c r="F23" s="20">
-        <f>SUM(H23,J23,L23,N23,P23,R23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G23" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="H23" s="20">
@@ -12284,11 +12467,11 @@
         <v>110522</v>
       </c>
       <c r="F24" s="20">
-        <f>SUM(H24,J24,L24,N24,P24,R24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G24" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H24" s="20">
@@ -12339,11 +12522,11 @@
         <v>110522</v>
       </c>
       <c r="F25" s="20">
-        <f>SUM(H25,J25,L25,N25,P25,R25)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G25" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="H25" s="20">
@@ -12397,11 +12580,11 @@
         <v>110522</v>
       </c>
       <c r="F26" s="20">
-        <f>SUM(H26,J26,L26,N26,P26,R26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G26" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H26" s="20">
@@ -12449,11 +12632,11 @@
         <v>110522</v>
       </c>
       <c r="F27" s="20">
-        <f>SUM(H27,J27,L27,N27,P27,R27)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G27" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H27" s="20">
@@ -12510,11 +12693,11 @@
         <v>110522</v>
       </c>
       <c r="F28" s="20">
-        <f>SUM(H28,J28,L28,N28,P28,R28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G28" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H28" s="20">
@@ -12565,11 +12748,11 @@
         <v>110522</v>
       </c>
       <c r="F29" s="20">
-        <f>SUM(H29,J29,L29,N29,P29,R29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G29" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="H29" s="20">
@@ -12623,11 +12806,11 @@
         <v>110522</v>
       </c>
       <c r="F30" s="20">
-        <f>SUM(H30,J30,L30,N30,P30,R30)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G30" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H30" s="20">
@@ -12678,11 +12861,11 @@
         <v>110522</v>
       </c>
       <c r="F31" s="20">
-        <f>SUM(H31,J31,L31,N31,P31,R31)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G31" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H31" s="20">
@@ -12730,11 +12913,11 @@
         <v>110522</v>
       </c>
       <c r="F32" s="20">
-        <f>SUM(H32,J32,L32,N32,P32,R32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G32" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="H32" s="20">
@@ -12788,11 +12971,11 @@
         <v>110522</v>
       </c>
       <c r="F33" s="20">
-        <f>SUM(H33,J33,L33,N33,P33,R33)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G33" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H33" s="20">
@@ -12843,11 +13026,11 @@
         <v>110522</v>
       </c>
       <c r="F34" s="20">
-        <f>SUM(H34,J34,L34,N34,P34,R34)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G34" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H34" s="20">
@@ -12895,11 +13078,11 @@
         <v>110522</v>
       </c>
       <c r="F35" s="20">
-        <f>SUM(H35,J35,L35,N35,P35,R35)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G35" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H35" s="20">
@@ -12947,11 +13130,11 @@
         <v>110522</v>
       </c>
       <c r="F36" s="20">
-        <f>SUM(H36,J36,L36,N36,P36,R36)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G36" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="H36" s="20">
@@ -13005,11 +13188,11 @@
         <v>110522</v>
       </c>
       <c r="F37" s="20">
-        <f>SUM(H37,J37,L37,N37,P37,R37)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G37" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H37" s="20">
@@ -13060,11 +13243,11 @@
         <v>110522</v>
       </c>
       <c r="F38" s="20">
-        <f>SUM(H38,J38,L38,N38,P38,R38)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G38" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H38" s="20">
@@ -13096,6 +13279,622 @@
       </c>
       <c r="S38" t="s">
         <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC8D65A-D020-48CC-BFD7-0D6A3389403D}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT(A2,"@maua.br")</f>
+        <v>21.00098-0@maua.br</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C40" si="0">_xlfn.CONCAT(A3,"@maua.br")</f>
+        <v>19.00386-2@maua.br</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>19.02028-7@maua.br</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>20.00041-3@maua.br</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>20.00601-2@maua.br</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>20.00611-0@maua.br</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>20.00822-8@maua.br</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>20.01308-6@maua.br</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>20.01629-8@maua.br</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>20.01913-0@maua.br</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>20.02146-0@maua.br</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>20.02194-0@maua.br</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00127-8@maua.br</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00210-0@maua.br</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00256-8@maua.br</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>567</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00334-3@maua.br</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00368-8@maua.br</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00410-2@maua.br</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>570</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00478-0@maua.br</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>571</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00663-6@maua.br</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>572</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00690-3@maua.br</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>573</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00745-4@maua.br</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" t="s">
+        <v>574</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00781-0@maua.br</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>575</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00784-5@maua.br</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00834-5@maua.br</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>21.00931-7@maua.br</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>578</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01075-7@maua.br</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" t="s">
+        <v>579</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01192-3@maua.br</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" t="s">
+        <v>580</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01208-3@maua.br</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01219-9@maua.br</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>582</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01286-5@maua.br</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" t="s">
+        <v>583</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01350-0@maua.br</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>584</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01444-2@maua.br</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" t="s">
+        <v>585</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01535-0@maua.br</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" t="s">
+        <v>586</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01809-0@maua.br</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>587</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01922-3@maua.br</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>588</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>21.01997-5@maua.br</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>589</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02028-0@maua.br</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>590</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02093-0@maua.br</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/CD_P1_2025.xlsx
+++ b/CD_P1_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ano_2025S1\CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02008DE8-2C30-4590-BDC0-669B6AF8CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76B8204-7026-48F6-8AD8-06F133C2A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ex1'!$A$1:$AS$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'P1'!$A$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'P1'!$C$18:$C$42</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'P1'!$C$1:$C$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'P1'!$B$18:$B$42</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'P1'!$B$1:$B$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'P1'!$C$18:$C$42</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'P1'!$C$1:$C$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'P1'!$C$18:$C$42</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'P1'!$C$1:$C$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="600">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1856,6 +1864,44 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>Notebook Check</t>
+  </si>
+  <si>
+    <t>Não Executa</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Última nem executa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aqui os notebooks considerados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Rogerio-mack/IMT_CD_2025/raw/refs/heads/main/P1_notebooks.zip  </t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1912,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1954,6 +2000,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1967,7 +2014,38 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2287,7 +2365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2518,15 +2596,59 @@
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="14" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3047,9 +3169,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respostas ao formulário 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3064,42 +3186,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:U23">
-  <autoFilter ref="A1:U23" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
-    <filterColumn colId="16">
-      <filters>
-        <filter val="12633"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:V23">
+  <autoFilter ref="A1:V23" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V23">
     <sortCondition ref="C1:C23"/>
   </sortState>
-  <tableColumns count="21">
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nome_x000a_"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RA_x000a_"/>
-    <tableColumn id="21" xr3:uid="{61BB0B46-1C0A-4663-A392-6E542F6AF996}" name="Pontos" dataDxfId="17">
-      <calculatedColumnFormula>SUM(H2,J2,L2,N2,P2,R2,T2)</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{61BB0B46-1C0A-4663-A392-6E542F6AF996}" name="Pontos" dataDxfId="19">
+      <calculatedColumnFormula>SUM(I2,K2,M2,O2,Q2,S2,U2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{366CC569-4821-4775-B592-A875645373E0}" name="Nota" dataDxfId="16">
+    <tableColumn id="22" xr3:uid="{366CC569-4821-4775-B592-A875645373E0}" name="Nota" dataDxfId="18">
       <calculatedColumnFormula>Form_Responses1[[#This Row],[Pontos]]/7*10</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="14" xr3:uid="{9E2E1ABE-F442-4D86-9EDE-D990ED657722}" name="Notebook Check" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Q1. Forneça os 3 proprietários (&quot;hosts&quot;) com mais imóveis sendo anunciados na plataforma, e a respectiva quantidade de imóveis anunciados._x000a__x000a_Ex: John,9;Alice,5;Daniel,4"/>
-    <tableColumn id="13" xr3:uid="{2A034FCD-48AC-41B3-B219-B296573F175E}" name="Q1" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{2A034FCD-48AC-41B3-B219-B296573F175E}" name="Q1" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Q2A. Qual a diferença do preço médio dos imóveis dos anunciantes com mais de um imóvel e dos anunciantes com um único imóvel anunciado na plataforma?_x000a__x000a_Ex. 78.81"/>
-    <tableColumn id="15" xr3:uid="{5E806EA6-B4A9-4768-AB7D-B2042760188D}" name="Q2" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{5E806EA6-B4A9-4768-AB7D-B2042760188D}" name="Q2" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Q3A. Manhattan outliers. Qual o percentual de imóveis de Manhattan com preços estatisticamente discrepantes (outliers) com relação aos preços de todos os imóveis?_x000a__x000a_Ex. 21.05"/>
-    <tableColumn id="16" xr3:uid="{2CC0D645-5C9E-4F1A-9A81-D95B9C01A9F8}" name="Q3" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{2CC0D645-5C9E-4F1A-9A81-D95B9C01A9F8}" name="Q3" dataDxfId="15"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Q4A. Qual a palavra que nos anúncios que apresenta o maior e menor preços médios? (valores truncados)_x000a__x000a_Ex. beatiful,141.90;sunny,122.35"/>
-    <tableColumn id="17" xr3:uid="{4409B055-3AD1-4CB5-9FDE-3A694D4D9385}" name="Q4" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{4409B055-3AD1-4CB5-9FDE-3A694D4D9385}" name="Q4" dataDxfId="14"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Q5. Qual o preço médio de Taxes e Fines para o Bairro do Manhattan? (valor inteiro, astype(int))_x000a__x000a_Ex. 1008,101"/>
-    <tableColumn id="18" xr3:uid="{0D6B9F19-6116-481A-9C20-DBCC9703AEC3}" name="Q5" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{0D6B9F19-6116-481A-9C20-DBCC9703AEC3}" name="Q5" dataDxfId="13"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Q6A. A soma dos preços das páginas 1, 24, 25 e 28 é:  _x000a__x000a_Ex. 11620"/>
-    <tableColumn id="19" xr3:uid="{BB0ED3B6-73DB-4A39-8EB3-E4A9087685FD}" name="Q6" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{BB0ED3B6-73DB-4A39-8EB3-E4A9087685FD}" name="Q6" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Q7. Considere as fases do processo CRISP DM. Relacione ao menos 6 tarefas presentes na preparação dos dados."/>
-    <tableColumn id="20" xr3:uid="{192BD007-2B99-4E1E-8EC0-DCF1C0ACF411}" name="Q7" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{192BD007-2B99-4E1E-8EC0-DCF1C0ACF411}" name="Q7" dataDxfId="11"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Poste aqui o link do seu notebook Colab compartilhado como público no seu Drive ou no GitHub._x000a__x000a_Ex. _x000a_https://colab.research.google.com/drive/1cJJWfFTIJ_iWYw7t1VPlPOFBsv9XsCWF#scrollTo=edfpleAbtOzo_x000a__x000a_OU _x000a__x000a_https://github.com/Rogerio-mack/IMT_CD_2025/blob/main"/>
   </tableColumns>
   <tableStyleInfo name="Respostas ao formulário 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3107,42 +3224,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7AF40366-8C45-4D19-95B3-44C15A82E197}" name="Form_Responses13" displayName="Form_Responses13" ref="A1:U17">
-  <autoFilter ref="A1:U17" xr:uid="{7AF40366-8C45-4D19-95B3-44C15A82E197}">
-    <filterColumn colId="16">
-      <filters>
-        <filter val="17838"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7AF40366-8C45-4D19-95B3-44C15A82E197}" name="Form_Responses13" displayName="Form_Responses13" ref="A1:V17">
+  <autoFilter ref="A1:V17" xr:uid="{7AF40366-8C45-4D19-95B3-44C15A82E197}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V17">
     <sortCondition ref="C1:C17"/>
   </sortState>
-  <tableColumns count="21">
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{CA0EE678-84B9-4FFD-A0FF-B3E9457D2380}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{FF31EA1C-966B-43DD-837F-A061528FA96C}" name="Endereço de e-mail"/>
     <tableColumn id="3" xr3:uid="{3B82E203-1B43-4FC7-8AC4-C2AED1E3D0A2}" name="Nome_x000a_"/>
     <tableColumn id="4" xr3:uid="{428E8045-6239-4F6F-A009-3618741209A0}" name="RA_x000a_"/>
-    <tableColumn id="21" xr3:uid="{2404164F-6548-4300-B3EA-AABD8BBE5DDD}" name="Pontos" dataDxfId="8">
-      <calculatedColumnFormula>SUM(H2,J2,L2,N2,P2,R2,T2)</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{2404164F-6548-4300-B3EA-AABD8BBE5DDD}" name="Pontos" dataDxfId="10">
+      <calculatedColumnFormula>SUM(I2,K2,M2,O2,Q2,S2,U2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B6138BC5-F865-48F2-97E7-F9554B2D2C19}" name="Nota" dataDxfId="7">
+    <tableColumn id="22" xr3:uid="{B6138BC5-F865-48F2-97E7-F9554B2D2C19}" name="Nota" dataDxfId="9">
       <calculatedColumnFormula>Form_Responses13[[#This Row],[Pontos]]/7*10</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="13" xr3:uid="{F1C594E5-4B18-43FA-A3BB-4CEE6E44FD22}" name="Notebook Check" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{D1ADEBE1-0736-4C42-A578-721B12F8BF34}" name="Q1. Forneça os 3 proprietários (&quot;hosts&quot;) com mais imóveis sendo anunciados na plataforma, e a respectiva quantidade de imóveis anunciados._x000a__x000a_Ex: John,9;Alice,5;Daniel,4"/>
-    <tableColumn id="14" xr3:uid="{4FCC4469-EEAC-4693-9921-5CBA6247CC33}" name="Q1" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{4FCC4469-EEAC-4693-9921-5CBA6247CC33}" name="Q1" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{CD12B498-88CB-4567-86D5-A0B439A54A1B}" name="Q2B. Qual o preço médio dos imóveis em bairros com mais de 20 anúncios? _x000a__x000a_Ex. 178.81"/>
-    <tableColumn id="15" xr3:uid="{510BA15D-2FFB-467C-8AA5-31BEB4E46D93}" name="Q2" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{510BA15D-2FFB-467C-8AA5-31BEB4E46D93}" name="Q2" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{AFE072FE-AE23-4714-817E-7BF23FB49BA3}" name="Q3B. Brooklyn outliers. Qual o percentual de imóveis de Brooklyn com preços estatisticamente discrepantes (outliers) com relação aos preços de todos os imóveis?_x000a__x000a_Ex. 21.05"/>
-    <tableColumn id="16" xr3:uid="{1DF3AE3E-F5EB-42B5-A44E-258162F06B7F}" name="Q3" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{1DF3AE3E-F5EB-42B5-A44E-258162F06B7F}" name="Q3" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{ACF8FD49-7DA6-457C-9C1B-AEDD792BC87E}" name="Q4B. Qual a soma dos valores de score obtida?_x000a__x000a_Ex. 11956"/>
-    <tableColumn id="17" xr3:uid="{91D7DC95-3200-4E5D-BDA6-2184DE0DB61E}" name="Q4" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{91D7DC95-3200-4E5D-BDA6-2184DE0DB61E}" name="Q4" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{600B666A-C3F5-43C4-B4EE-213BEC6A23FC}" name="Q5. Qual o preço médio de Taxes e Fines para o Bairro do Manhattan? (valor inteiro, astype(int))_x000a__x000a_Ex. 1008,101"/>
-    <tableColumn id="18" xr3:uid="{B118A0DF-FD04-4B74-B4FE-D300437F17BA}" name="Q5" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{B118A0DF-FD04-4B74-B4FE-D300437F17BA}" name="Q5" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{70C96337-526E-4031-A2EF-0CFB6EF8095B}" name="Q6B. A soma dos preços das páginas 1, 24, 25, 26 e 28 é:  _x000a__x000a_Ex. 11620"/>
-    <tableColumn id="19" xr3:uid="{DD33CCBB-831B-4E9C-AFE7-717699B2AD6F}" name="Q6" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{DD33CCBB-831B-4E9C-AFE7-717699B2AD6F}" name="Q6" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{6AF0495A-EC1D-47BB-97E7-14F30C836E05}" name="Q7. Considere as fases do processo CRISP DM. Relacione ao menos 6 tarefas presentes na preparação dos dados."/>
-    <tableColumn id="20" xr3:uid="{D1F8FDD4-99B2-4EA8-89AC-5988A6FB6B6B}" name="Q7" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{D1F8FDD4-99B2-4EA8-89AC-5988A6FB6B6B}" name="Q7" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{72B036A0-ABAA-4E8A-B141-FC774DD1E8C1}" name="Poste aqui o link do seu notebook Colab compartilhado como público no seu Drive ou no GitHub._x000a__x000a_Ex. _x000a_https://colab.research.google.com/drive/1cJJWfFTIJ_iWYw7t1VPlPOFBsv9XsCWF#scrollTo=edfpleAbtOzo_x000a__x000a_OU _x000a__x000a_https://github.com/Rogerio-mack/IMT_CD_2025/blob/main"/>
   </tableColumns>
   <tableStyleInfo name="Respostas ao formulário 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3350,7 +3462,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3416,6 +3528,9 @@
         <f>(E2+G2)/2</f>
         <v>3.6666666666666665</v>
       </c>
+      <c r="J2" s="92" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
@@ -3443,6 +3558,9 @@
         <f t="shared" ref="H3:H40" si="0">(E3+G3)/2</f>
         <v>8.3333333333333321</v>
       </c>
+      <c r="J3" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
@@ -3451,8 +3569,8 @@
       <c r="B4" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="72">
-        <v>4.2857142857142856</v>
+      <c r="C4" s="83">
+        <v>5</v>
       </c>
       <c r="D4" s="57" t="s">
         <v>130</v>
@@ -3609,8 +3727,8 @@
       <c r="B10" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="74">
-        <v>2.8571428571428568</v>
+      <c r="C10" s="84">
+        <v>3.6</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>197</v>
@@ -3744,7 +3862,7 @@
       <c r="B15" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="84">
         <v>5.7</v>
       </c>
       <c r="D15" s="71" t="s">
@@ -3771,8 +3889,8 @@
       <c r="B16" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="72">
-        <v>4.2857142857142856</v>
+      <c r="C16" s="83">
+        <v>5</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>226</v>
@@ -3850,8 +3968,8 @@
       <c r="B19" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="73">
-        <v>7.1428571428571432</v>
+      <c r="C19" s="87">
+        <v>7.9</v>
       </c>
       <c r="D19" s="59" t="s">
         <v>64</v>
@@ -3931,8 +4049,8 @@
       <c r="B22" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="72">
-        <v>1.4285714285714284</v>
+      <c r="C22" s="89">
+        <v>3.6</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>237</v>
@@ -3985,8 +4103,8 @@
       <c r="B24" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="72">
-        <v>4.2857142857142856</v>
+      <c r="C24" s="83">
+        <v>5</v>
       </c>
       <c r="D24" s="57" t="s">
         <v>220</v>
@@ -4012,8 +4130,8 @@
       <c r="B25" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="74">
-        <v>1.4285714285714284</v>
+      <c r="C25" s="90">
+        <v>2.9</v>
       </c>
       <c r="D25" s="71" t="s">
         <v>254</v>
@@ -4039,8 +4157,8 @@
       <c r="B26" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="72">
-        <v>0.71428571428571419</v>
+      <c r="C26" s="83">
+        <v>2.1</v>
       </c>
       <c r="D26" s="57" t="s">
         <v>104</v>
@@ -4093,8 +4211,8 @@
       <c r="B28" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="72">
-        <v>2.8571428571428568</v>
+      <c r="C28" s="83">
+        <v>4.3</v>
       </c>
       <c r="D28" s="57" t="s">
         <v>140</v>
@@ -4120,8 +4238,8 @@
       <c r="B29" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="73">
-        <v>0</v>
+      <c r="C29" s="87">
+        <v>1.4</v>
       </c>
       <c r="D29" s="59" t="s">
         <v>134</v>
@@ -4147,8 +4265,8 @@
       <c r="B30" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="74">
-        <v>4.2857142857142856</v>
+      <c r="C30" s="90">
+        <v>5.7</v>
       </c>
       <c r="D30" s="71" t="s">
         <v>173</v>
@@ -4201,8 +4319,8 @@
       <c r="B32" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="72">
-        <v>5.7142857142857135</v>
+      <c r="C32" s="83">
+        <v>6.4</v>
       </c>
       <c r="D32" s="57" t="s">
         <v>117</v>
@@ -4255,8 +4373,8 @@
       <c r="B34" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="72">
-        <v>4.2857142857142856</v>
+      <c r="C34" s="83">
+        <v>5</v>
       </c>
       <c r="D34" s="57" t="s">
         <v>166</v>
@@ -4309,8 +4427,8 @@
       <c r="B36" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="72">
-        <v>7.1428571428571432</v>
+      <c r="C36" s="83">
+        <v>7.9</v>
       </c>
       <c r="D36" s="57" t="s">
         <v>124</v>
@@ -4390,7 +4508,7 @@
       <c r="B39" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="87">
         <v>2.1428571428571428</v>
       </c>
       <c r="D39" s="59" t="s">
@@ -4417,8 +4535,8 @@
       <c r="B40" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="74">
-        <v>1.4285714285714284</v>
+      <c r="C40" s="84">
+        <v>2.9</v>
       </c>
       <c r="D40" s="71" t="s">
         <v>111</v>
@@ -4458,27 +4576,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="20"/>
-    <col min="10" max="10" width="15.42578125" style="20"/>
-    <col min="12" max="12" width="15.42578125" style="20"/>
-    <col min="14" max="14" width="15.42578125" style="20"/>
-    <col min="16" max="16" width="15.42578125" style="20"/>
-    <col min="18" max="18" width="15.42578125" style="20"/>
-    <col min="20" max="20" width="15.42578125" style="20"/>
+    <col min="5" max="7" width="11.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="20"/>
+    <col min="11" max="11" width="15.42578125" style="20"/>
+    <col min="13" max="13" width="15.42578125" style="20"/>
+    <col min="15" max="15" width="15.42578125" style="20"/>
+    <col min="17" max="17" width="15.42578125" style="20"/>
+    <col min="19" max="19" width="15.42578125" style="20"/>
+    <col min="21" max="21" width="15.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4497,53 +4615,56 @@
       <c r="F1" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45757.764765798609</v>
       </c>
@@ -4557,40 +4678,43 @@
         <v>148</v>
       </c>
       <c r="E2" s="20">
-        <f t="shared" ref="E2:E23" si="0">SUM(H2,J2,L2,N2,P2,R2,T2)</f>
+        <f t="shared" ref="E2:E23" si="0">SUM(I2,K2,M2,O2,Q2,S2,U2)</f>
         <v>0.5</v>
       </c>
       <c r="F2" s="52">
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>0.71428571428571419</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="4" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="T2" s="26">
+      <c r="U2" s="26">
         <v>0.5</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="V2" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45757.765343078703</v>
       </c>
@@ -4611,51 +4735,54 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>8.5714285714285712</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="18">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="18">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="22">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="22">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="18">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
+      <c r="O3" s="18">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
         <v>590.24099999999999</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="7">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="7">
         <v>12633</v>
       </c>
-      <c r="R3" s="18">
-        <v>1</v>
-      </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="18">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="27">
-        <v>1</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="27">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45757.761845659727</v>
       </c>
@@ -4670,47 +4797,52 @@
       </c>
       <c r="E4" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F4" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="F4" s="82">
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="17">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="O4" s="17">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
         <v>855.30200000000002</v>
       </c>
-      <c r="P4" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="5" t="s">
+      <c r="Q4" s="17">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45757.763415428242</v>
       </c>
@@ -4731,47 +4863,50 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="82" t="s">
+        <v>595</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="18">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="21">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="21">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="18">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="O5" s="18">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
         <v>1068.539</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="7">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="7">
         <v>11579</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="18"/>
+      <c r="T5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="27">
+      <c r="U5" s="27">
         <v>0</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45757.76182407407</v>
       </c>
@@ -4792,53 +4927,56 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="21">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="21">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="17">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="O6" s="17">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
         <v>855.30200000000002</v>
       </c>
-      <c r="P6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="17">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
         <v>12633</v>
       </c>
-      <c r="R6" s="17">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="17">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T6" s="26">
-        <v>1</v>
-      </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="26">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45757.767280138884</v>
       </c>
@@ -4859,47 +4997,50 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="18">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="17"/>
+      <c r="N7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="18">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="O7" s="18">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
         <v>888.31399999999996</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="7">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="7">
         <v>14634</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="18"/>
+      <c r="T7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="T7" s="27">
+      <c r="U7" s="27">
         <v>0</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45757.76469862269</v>
       </c>
@@ -4920,49 +5061,52 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>6.4285714285714288</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="17">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="17">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="21">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="21">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="17">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="O8" s="17">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
         <v>1081.1043999999999</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="4">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="4">
         <v>15618</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="17"/>
+      <c r="T8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T8" s="26">
+      <c r="U8" s="26">
         <v>0.5</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45757.765277118058</v>
       </c>
@@ -4983,47 +5127,50 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>5.7142857142857135</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="18">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="17"/>
+      <c r="N9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="18">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
+      <c r="O9" s="18">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
         <v>888.31399999999996</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="7">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="7">
         <v>12633</v>
       </c>
-      <c r="R9" s="18">
-        <v>1</v>
-      </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="18">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="27">
-        <v>1</v>
-      </c>
-      <c r="U9" s="14" t="s">
+      <c r="U9" s="27">
+        <v>1</v>
+      </c>
+      <c r="V9" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45757.763804837959</v>
       </c>
@@ -5044,43 +5191,46 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>1.4285714285714284</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="17"/>
+      <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="17"/>
+      <c r="N10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="17">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="O10" s="17">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
         <v>0</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="4">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="17"/>
+      <c r="T10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="26">
+      <c r="U10" s="26">
         <v>0</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="V10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>45757.767226516204</v>
       </c>
@@ -5093,57 +5243,62 @@
       <c r="D11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F11" s="52">
+      <c r="E11" s="86">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F11" s="82">
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="G11" s="7" t="s">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="18">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="18">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="21">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="21">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="18">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="O11" s="18">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7">
         <v>873.30700000000002</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="7">
+      <c r="Q11" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="7">
         <v>13227</v>
       </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="18"/>
+      <c r="T11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="T11" s="27">
-        <v>1</v>
-      </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="27">
+        <v>1</v>
+      </c>
+      <c r="V11" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45757.767000069449</v>
       </c>
@@ -5164,47 +5319,50 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>5.7142857142857135</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="17">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="17">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="21">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="21">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="17">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
+      <c r="O12" s="17">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
         <v>888.31399999999996</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="4">
+      <c r="Q12" s="17"/>
+      <c r="R12" s="4">
         <v>15408</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="17"/>
+      <c r="T12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="T12" s="26">
-        <v>1</v>
-      </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="26">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>45757.766134583333</v>
       </c>
@@ -5225,45 +5383,48 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>5.7142857142857135</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="17">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="17">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="21">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="21">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N13" s="18">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="O13" s="18">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7">
         <v>314.88799999999998</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="7">
+      <c r="Q13" s="18"/>
+      <c r="R13" s="7">
         <v>15668</v>
       </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="9" t="s">
+      <c r="S13" s="18"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45757.766241412042</v>
       </c>
@@ -5284,47 +5445,50 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>5.7142857142857135</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="17"/>
+      <c r="J14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="21">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="17">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="O14" s="17">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
         <v>590</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="4">
+      <c r="Q14" s="17"/>
+      <c r="R14" s="4">
         <v>12633</v>
       </c>
-      <c r="R14" s="17">
-        <v>1</v>
-      </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="17">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="26">
-        <v>1</v>
-      </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="26">
+        <v>1</v>
+      </c>
+      <c r="V14" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>45757.763914861112</v>
       </c>
@@ -5337,47 +5501,52 @@
       <c r="D15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="20">
-        <f t="shared" si="0"/>
+      <c r="E15" s="86">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="82">
+        <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="78">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="7">
+        <v>888.31399999999996</v>
+      </c>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="7">
+        <v>18615</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" s="27">
         <v>0.5</v>
       </c>
-      <c r="F15" s="52">
-        <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
-        <v>0.71428571428571419</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="7">
-        <v>888.31399999999996</v>
-      </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="7">
-        <v>18615</v>
-      </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="T15" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="U15" s="14" t="s">
+      <c r="V15" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45757.763641990736</v>
       </c>
@@ -5398,51 +5567,54 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>8.5714285714285712</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="17">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="17">
-        <v>1</v>
-      </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="21">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="21">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="17">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
+      <c r="O16" s="17">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
         <v>855.30200000000002</v>
       </c>
-      <c r="P16" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="17">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4">
         <v>15554</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="17"/>
+      <c r="T16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="T16" s="26">
-        <v>1</v>
-      </c>
-      <c r="U16" s="13" t="s">
+      <c r="U16" s="26">
+        <v>1</v>
+      </c>
+      <c r="V16" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45757.765083888888</v>
       </c>
@@ -5457,43 +5629,48 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F17" s="52">
+        <v>3</v>
+      </c>
+      <c r="F17" s="82">
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
-        <v>2.8571428571428568</v>
-      </c>
-      <c r="G17" s="7" t="s">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="18"/>
+      <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="78">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="N17" s="18">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="14" t="s">
+      <c r="O17" s="18">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45757.76736982639</v>
       </c>
@@ -5508,39 +5685,46 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="52">
+        <v>1</v>
+      </c>
+      <c r="F18" s="82">
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="s">
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="4" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="4">
+      <c r="O18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="4">
         <v>1088.942</v>
       </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="13" t="s">
+      <c r="Q18" s="17"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45757.767345428241</v>
       </c>
@@ -5555,55 +5739,60 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F19" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="F19" s="82">
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
-        <v>5.7142857142857135</v>
-      </c>
-      <c r="G19" s="7" t="s">
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="G19" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="18">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="17">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="17">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="18">
-        <v>1</v>
-      </c>
-      <c r="O19" s="7">
+      <c r="O19" s="18">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7">
         <v>855.30200000000002</v>
       </c>
-      <c r="P19" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="18">
+        <v>1</v>
+      </c>
+      <c r="R19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="18"/>
+      <c r="T19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="T19" s="27">
+      <c r="U19" s="27">
         <v>0</v>
       </c>
-      <c r="U19" s="14" t="s">
+      <c r="V19" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45757.759051180554</v>
       </c>
@@ -5618,51 +5807,56 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="52">
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
-        <v>2.8571428571428568</v>
-      </c>
-      <c r="G20" s="4" t="s">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="17">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="17">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="17">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="17">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4">
+      <c r="O20" s="17">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
         <v>889.31500000000005</v>
       </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="4">
+      <c r="Q20" s="17"/>
+      <c r="R20" s="4">
         <v>13606</v>
       </c>
-      <c r="R20" s="17"/>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="17"/>
+      <c r="T20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T20" s="26">
+      <c r="U20" s="26">
         <v>0</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="V20" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>45757.766664965282</v>
       </c>
@@ -5683,53 +5877,56 @@
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
         <v>10</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="18">
-        <v>1</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="22">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="22">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="18">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7">
+      <c r="O21" s="18">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7">
         <v>855.30200000000002</v>
       </c>
-      <c r="P21" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="18">
+        <v>1</v>
+      </c>
+      <c r="R21" s="7">
         <v>12633</v>
       </c>
-      <c r="R21" s="18">
-        <v>1</v>
-      </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="18">
+        <v>1</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T21" s="27">
-        <v>1</v>
-      </c>
-      <c r="U21" s="9" t="s">
+      <c r="U21" s="27">
+        <v>1</v>
+      </c>
+      <c r="V21" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45757.755979513888</v>
       </c>
@@ -5744,55 +5941,60 @@
       </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F22" s="52">
+        <v>5.5</v>
+      </c>
+      <c r="F22" s="82">
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="G22" s="4" t="s">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="G22" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="17">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="17">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="17">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="17">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="O22" s="17">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
         <v>855.303</v>
       </c>
-      <c r="P22" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="17">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="17"/>
+      <c r="T22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="T22" s="26">
-        <v>1</v>
-      </c>
-      <c r="U22" s="13" t="s">
+      <c r="U22" s="26">
+        <v>1</v>
+      </c>
+      <c r="V22" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>45757.766253449074</v>
       </c>
@@ -5807,73 +6009,78 @@
       </c>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="52">
         <f>Form_Responses1[[#This Row],[Pontos]]/7*10</f>
-        <v>1.4285714285714284</v>
-      </c>
-      <c r="G23" s="12" t="s">
+        <v>2.8571428571428568</v>
+      </c>
+      <c r="G23" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="19"/>
+      <c r="L23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="19">
+        <v>1</v>
+      </c>
+      <c r="N23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="19">
-        <v>1</v>
-      </c>
-      <c r="O23" s="12">
+      <c r="O23" s="19">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12">
         <v>888.31399999999996</v>
       </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="R23" s="19"/>
-      <c r="S23" s="12" t="s">
+      <c r="S23" s="19"/>
+      <c r="T23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="T23" s="28">
+      <c r="U23" s="28">
         <v>0</v>
       </c>
-      <c r="U23" s="23" t="s">
+      <c r="V23" s="23" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="U10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="U5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="U14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="U3" r:id="rId4" location="scrollTo=Znm7DXLmRrk0" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="U6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="U21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="U9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="U11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="U20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="U7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="U12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="U16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="U8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="U13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="U15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="U23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="U19" r:id="rId17" location="scrollTo=6eGIM8fVgfBK" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="U22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="U4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="U18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="U17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="U2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="V10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V3" r:id="rId4" location="scrollTo=Znm7DXLmRrk0" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="V9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="V7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="V16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="V8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="V15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="V23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V19" r:id="rId17" location="scrollTo=6eGIM8fVgfBK" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="V22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="V4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="V17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="V2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5884,10 +6091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8F4D43-39FE-4C3F-BFD5-EE814D97B1F0}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5895,26 +6102,26 @@
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" customWidth="1"/>
-    <col min="12" max="12" width="37.5703125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" customWidth="1"/>
-    <col min="14" max="14" width="37.5703125" style="20" customWidth="1"/>
-    <col min="15" max="15" width="37.5703125" customWidth="1"/>
-    <col min="16" max="16" width="37.5703125" style="20" customWidth="1"/>
-    <col min="17" max="17" width="37.5703125" customWidth="1"/>
-    <col min="18" max="18" width="37.5703125" style="20" customWidth="1"/>
-    <col min="19" max="19" width="37.5703125" customWidth="1"/>
-    <col min="20" max="20" width="37.5703125" style="20" customWidth="1"/>
-    <col min="21" max="21" width="37.5703125" customWidth="1"/>
-    <col min="23" max="26" width="18.85546875" customWidth="1"/>
+    <col min="5" max="7" width="18.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="37.5703125" customWidth="1"/>
+    <col min="15" max="15" width="37.5703125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.5703125" customWidth="1"/>
+    <col min="17" max="17" width="37.5703125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="37.5703125" customWidth="1"/>
+    <col min="19" max="19" width="37.5703125" style="20" customWidth="1"/>
+    <col min="20" max="20" width="37.5703125" customWidth="1"/>
+    <col min="21" max="21" width="37.5703125" style="20" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" customWidth="1"/>
+    <col min="24" max="27" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -5933,53 +6140,56 @@
       <c r="F1" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="T1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="U1" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
         <v>45757.768014351852</v>
       </c>
@@ -5993,52 +6203,55 @@
         <v>248</v>
       </c>
       <c r="E2" s="20">
-        <f t="shared" ref="E2:E17" si="0">SUM(H2,J2,L2,N2,P2,R2,T2)</f>
+        <f t="shared" ref="E2:E17" si="0">SUM(I2,K2,M2,O2,Q2,S2,U2)</f>
         <v>4</v>
       </c>
       <c r="F2" s="52">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>5.7142857142857135</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="36">
-        <v>1</v>
-      </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="36">
+        <v>1</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="36">
-        <v>1</v>
-      </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="36">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35">
+      <c r="M2" s="36"/>
+      <c r="N2" s="35">
         <v>10955</v>
       </c>
-      <c r="N2" s="36">
-        <v>1</v>
-      </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="36">
+        <v>1</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="35" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="T2" s="36">
-        <v>1</v>
-      </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="36">
+        <v>1</v>
+      </c>
+      <c r="V2" s="37" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="38">
         <v>45757.766172037038</v>
       </c>
@@ -6059,41 +6272,44 @@
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>2.8571428571428568</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="40">
-        <v>1</v>
-      </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="40">
+        <v>1</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="39">
+      <c r="M3" s="40"/>
+      <c r="N3" s="39">
         <v>134752</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="39">
+      <c r="O3" s="40"/>
+      <c r="P3" s="39">
         <v>1008.357</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="39" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="T3" s="40">
-        <v>1</v>
-      </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="40">
+        <v>1</v>
+      </c>
+      <c r="V3" s="43" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <v>45757.77001847222</v>
       </c>
@@ -6108,51 +6324,56 @@
       </c>
       <c r="E4" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F4" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="85">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
-        <v>2.8571428571428568</v>
-      </c>
-      <c r="G4" s="35" t="s">
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="36">
-        <v>1</v>
-      </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="36">
+        <v>1</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="36">
-        <v>1</v>
-      </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="36">
+        <v>1</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="35">
+      <c r="M4" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="35">
         <v>8550</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="35">
+      <c r="O4" s="36"/>
+      <c r="P4" s="35">
         <v>888.31399999999996</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="35">
+      <c r="Q4" s="36"/>
+      <c r="R4" s="35">
         <v>1099</v>
       </c>
-      <c r="R4" s="36"/>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="36"/>
+      <c r="T4" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="T4" s="36">
+      <c r="U4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="V4" s="37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
         <v>45757.767335972225</v>
       </c>
@@ -6173,45 +6394,48 @@
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>2.8571428571428568</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="40">
-        <v>1</v>
-      </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="40">
+        <v>1</v>
+      </c>
+      <c r="L5" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="39">
+      <c r="M5" s="40"/>
+      <c r="N5" s="39">
         <v>10955</v>
       </c>
-      <c r="N5" s="40">
-        <v>1</v>
-      </c>
-      <c r="O5" s="39">
+      <c r="O5" s="40">
+        <v>1</v>
+      </c>
+      <c r="P5" s="39">
         <v>888.31399999999996</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="39">
+      <c r="Q5" s="40"/>
+      <c r="R5" s="39">
         <v>15134</v>
       </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="40"/>
+      <c r="T5" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="T5" s="40">
+      <c r="U5" s="40">
         <v>0</v>
       </c>
-      <c r="U5" s="43" t="s">
+      <c r="V5" s="43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <v>45757.766259224532</v>
       </c>
@@ -6232,51 +6456,54 @@
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>8.5714285714285712</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="36">
-        <v>1</v>
-      </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="36">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="36">
-        <v>1</v>
-      </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="36">
+        <v>1</v>
+      </c>
+      <c r="L6" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="36">
-        <v>1</v>
-      </c>
-      <c r="M6" s="35">
+      <c r="M6" s="36">
+        <v>1</v>
+      </c>
+      <c r="N6" s="35">
         <v>10955</v>
       </c>
-      <c r="N6" s="36">
-        <v>1</v>
-      </c>
-      <c r="O6" s="35">
+      <c r="O6" s="36">
+        <v>1</v>
+      </c>
+      <c r="P6" s="35">
         <v>855.30200000000002</v>
       </c>
-      <c r="P6" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="36">
+        <v>1</v>
+      </c>
+      <c r="R6" s="35">
         <v>5223</v>
       </c>
-      <c r="R6" s="36"/>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="36"/>
+      <c r="T6" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="T6" s="36">
-        <v>1</v>
-      </c>
-      <c r="U6" s="37" t="s">
+      <c r="U6" s="36">
+        <v>1</v>
+      </c>
+      <c r="V6" s="37" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="38">
         <v>45757.768493067131</v>
       </c>
@@ -6297,47 +6524,50 @@
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>5.7142857142857135</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="40">
-        <v>1</v>
-      </c>
-      <c r="M7" s="39">
+      <c r="M7" s="40">
+        <v>1</v>
+      </c>
+      <c r="N7" s="39">
         <v>10955</v>
       </c>
-      <c r="N7" s="40">
-        <v>1</v>
-      </c>
-      <c r="O7" s="39">
+      <c r="O7" s="40">
+        <v>1</v>
+      </c>
+      <c r="P7" s="39">
         <v>888.31399999999996</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="39">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="39">
         <v>17838</v>
       </c>
-      <c r="R7" s="78">
-        <v>1</v>
-      </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="78">
+        <v>1</v>
+      </c>
+      <c r="T7" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="T7" s="40">
-        <v>1</v>
-      </c>
-      <c r="U7" s="43" t="s">
+      <c r="U7" s="40">
+        <v>1</v>
+      </c>
+      <c r="V7" s="43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
         <v>45757.76540491898</v>
       </c>
@@ -6352,51 +6582,56 @@
       </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="F8" s="82">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="36"/>
+      <c r="J8" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="36">
-        <v>1</v>
-      </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="36">
+        <v>1</v>
+      </c>
+      <c r="L8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="35">
+      <c r="M8" s="36"/>
+      <c r="N8" s="35">
         <v>10955</v>
       </c>
-      <c r="N8" s="36">
-        <v>1</v>
-      </c>
-      <c r="O8" s="35">
+      <c r="O8" s="36">
+        <v>1</v>
+      </c>
+      <c r="P8" s="35">
         <v>889.31500000000005</v>
       </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="35">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="35">
         <v>16025</v>
       </c>
-      <c r="R8" s="36"/>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="T8" s="36">
-        <v>1</v>
-      </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="36">
+        <v>1</v>
+      </c>
+      <c r="V8" s="44" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
         <v>45757.765927337961</v>
       </c>
@@ -6411,47 +6646,54 @@
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="82">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
-        <v>1.4285714285714284</v>
-      </c>
-      <c r="G9" s="39" t="s">
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="40"/>
+      <c r="J9" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="39">
+      <c r="M9" s="42">
+        <v>1</v>
+      </c>
+      <c r="N9" s="39">
         <v>10955</v>
       </c>
-      <c r="N9" s="40">
-        <v>1</v>
-      </c>
-      <c r="O9" s="39">
+      <c r="O9" s="40">
+        <v>1</v>
+      </c>
+      <c r="P9" s="39">
         <v>1203</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="39" t="s">
+      <c r="Q9" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="T9" s="40">
+      <c r="U9" s="40">
         <v>0</v>
       </c>
-      <c r="U9" s="43" t="s">
+      <c r="V9" s="43" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>45757.769819421301</v>
       </c>
@@ -6466,51 +6708,56 @@
       </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="F10" s="82">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G10" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="36"/>
+      <c r="J10" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="J10" s="36">
-        <v>1</v>
-      </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="36">
+        <v>1</v>
+      </c>
+      <c r="L10" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="35">
+      <c r="M10" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="35">
         <v>10955</v>
       </c>
-      <c r="N10" s="36">
-        <v>1</v>
-      </c>
-      <c r="O10" s="35">
+      <c r="O10" s="36">
+        <v>1</v>
+      </c>
+      <c r="P10" s="35">
         <v>889.31500000000005</v>
       </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="35">
+      <c r="Q10" s="36"/>
+      <c r="R10" s="35">
         <v>15160</v>
       </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="36"/>
+      <c r="T10" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="T10" s="36">
-        <v>1</v>
-      </c>
-      <c r="U10" s="37" t="s">
+      <c r="U10" s="36">
+        <v>1</v>
+      </c>
+      <c r="V10" s="37" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
         <v>45757.764821493052</v>
       </c>
@@ -6525,45 +6772,50 @@
       </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="52">
+        <v>2</v>
+      </c>
+      <c r="F11" s="82">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
-        <v>1.4285714285714284</v>
-      </c>
-      <c r="G11" s="39" t="s">
+        <v>2.8571428571428568</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="40"/>
+      <c r="J11" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="40">
-        <v>1</v>
-      </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="40">
+        <v>1</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="39">
+      <c r="M11" s="42">
+        <v>1</v>
+      </c>
+      <c r="N11" s="39">
         <v>10940</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="40"/>
+      <c r="P11" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="39">
+      <c r="Q11" s="40"/>
+      <c r="R11" s="39">
         <v>17668</v>
       </c>
-      <c r="R11" s="40"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="43" t="s">
+      <c r="S11" s="40"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="43" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>45757.76087982639</v>
       </c>
@@ -6578,51 +6830,56 @@
       </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F12" s="52">
+        <v>4</v>
+      </c>
+      <c r="F12" s="82">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G12" s="35" t="s">
+        <v>5.7142857142857135</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="36"/>
+      <c r="J12" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="36">
-        <v>1</v>
-      </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="36">
+        <v>1</v>
+      </c>
+      <c r="L12" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="35">
+      <c r="M12" s="46">
+        <v>1</v>
+      </c>
+      <c r="N12" s="35">
         <v>10955</v>
       </c>
-      <c r="N12" s="36">
-        <v>1</v>
-      </c>
-      <c r="O12" s="35">
+      <c r="O12" s="36">
+        <v>1</v>
+      </c>
+      <c r="P12" s="35">
         <v>601</v>
       </c>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="35">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="35">
         <v>15795</v>
       </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="35" t="s">
+      <c r="S12" s="36"/>
+      <c r="T12" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="T12" s="36">
-        <v>1</v>
-      </c>
-      <c r="U12" s="37" t="s">
+      <c r="U12" s="36">
+        <v>1</v>
+      </c>
+      <c r="V12" s="37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
         <v>45757.767136192131</v>
       </c>
@@ -6643,43 +6900,46 @@
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="40"/>
+      <c r="J13" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="40">
-        <v>1</v>
-      </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="40">
+        <v>1</v>
+      </c>
+      <c r="L13" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="39">
+      <c r="M13" s="40"/>
+      <c r="N13" s="39">
         <v>10955</v>
       </c>
-      <c r="N13" s="40">
-        <v>1</v>
-      </c>
-      <c r="O13" s="39">
+      <c r="O13" s="40">
+        <v>1</v>
+      </c>
+      <c r="P13" s="39">
         <v>1203.8248000000001</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="39" t="s">
+      <c r="Q13" s="40"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="T13" s="40">
-        <v>1</v>
-      </c>
-      <c r="U13" s="43" t="s">
+      <c r="U13" s="40">
+        <v>1</v>
+      </c>
+      <c r="V13" s="43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <v>45757.765474120373</v>
       </c>
@@ -6694,51 +6954,56 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F14" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="F14" s="91">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="36"/>
+      <c r="J14" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="36">
-        <v>1</v>
-      </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="36">
+        <v>1</v>
+      </c>
+      <c r="L14" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="L14" s="36">
-        <v>1</v>
-      </c>
-      <c r="M14" s="35">
+      <c r="M14" s="36">
+        <v>1</v>
+      </c>
+      <c r="N14" s="35">
         <v>4835</v>
       </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="35">
+      <c r="O14" s="36"/>
+      <c r="P14" s="35">
         <v>436.154</v>
       </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="35">
+      <c r="Q14" s="36"/>
+      <c r="R14" s="35">
         <v>43899</v>
       </c>
-      <c r="R14" s="36"/>
-      <c r="S14" s="35" t="s">
+      <c r="S14" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="T14" s="36">
-        <v>1</v>
-      </c>
-      <c r="U14" s="37" t="s">
+      <c r="U14" s="36">
+        <v>1</v>
+      </c>
+      <c r="V14" s="37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
         <v>45757.765481516202</v>
       </c>
@@ -6759,53 +7024,56 @@
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>10</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="40">
-        <v>1</v>
-      </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="40">
+        <v>1</v>
+      </c>
+      <c r="J15" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="40">
-        <v>1</v>
-      </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="40">
+        <v>1</v>
+      </c>
+      <c r="L15" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="40">
-        <v>1</v>
-      </c>
-      <c r="M15" s="39">
+      <c r="M15" s="40">
+        <v>1</v>
+      </c>
+      <c r="N15" s="39">
         <v>10955</v>
       </c>
-      <c r="N15" s="40">
-        <v>1</v>
-      </c>
-      <c r="O15" s="39">
+      <c r="O15" s="40">
+        <v>1</v>
+      </c>
+      <c r="P15" s="39">
         <v>855.30200000000002</v>
       </c>
-      <c r="P15" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="40">
+        <v>1</v>
+      </c>
+      <c r="R15" s="39">
         <v>17838</v>
       </c>
-      <c r="R15" s="40">
-        <v>1</v>
-      </c>
-      <c r="S15" s="39" t="s">
+      <c r="S15" s="40">
+        <v>1</v>
+      </c>
+      <c r="T15" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="T15" s="40">
-        <v>1</v>
-      </c>
-      <c r="U15" s="43" t="s">
+      <c r="U15" s="40">
+        <v>1</v>
+      </c>
+      <c r="V15" s="43" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>45757.766036030094</v>
       </c>
@@ -6826,49 +7094,52 @@
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>7.1428571428571432</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="36">
-        <v>1</v>
-      </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="36">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="J16" s="36">
-        <v>1</v>
-      </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="36">
+        <v>1</v>
+      </c>
+      <c r="L16" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="35">
+      <c r="M16" s="36"/>
+      <c r="N16" s="35">
         <v>10955</v>
       </c>
-      <c r="N16" s="36">
-        <v>1</v>
-      </c>
-      <c r="O16" s="35">
+      <c r="O16" s="36">
+        <v>1</v>
+      </c>
+      <c r="P16" s="35">
         <v>887.31399999999996</v>
       </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="35">
+      <c r="Q16" s="36"/>
+      <c r="R16" s="35">
         <v>17838</v>
       </c>
-      <c r="R16" s="36">
-        <v>1</v>
-      </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="36">
+        <v>1</v>
+      </c>
+      <c r="T16" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="T16" s="36">
-        <v>1</v>
-      </c>
-      <c r="U16" s="37" t="s">
+      <c r="U16" s="36">
+        <v>1</v>
+      </c>
+      <c r="V16" s="37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="47">
         <v>45757.752107731481</v>
       </c>
@@ -6889,58 +7160,61 @@
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>2.1428571428571428</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="82" t="s">
+        <v>597</v>
+      </c>
+      <c r="H17" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="49"/>
+      <c r="J17" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="49">
-        <v>1</v>
-      </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="49">
+        <v>1</v>
+      </c>
+      <c r="L17" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="48">
+      <c r="M17" s="49"/>
+      <c r="N17" s="48">
         <v>11215</v>
       </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="48">
+      <c r="O17" s="49"/>
+      <c r="P17" s="48">
         <v>888.31399999999996</v>
       </c>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="48" t="s">
+      <c r="Q17" s="49"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="T17" s="49">
+      <c r="U17" s="49">
         <v>0.5</v>
       </c>
-      <c r="U17" s="50" t="s">
+      <c r="V17" s="50" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U4" r:id="rId1" xr:uid="{D6781A03-1F66-471F-973A-BDB4AA795855}"/>
-    <hyperlink ref="U6" r:id="rId2" xr:uid="{E32AAA98-1363-4ED2-A6DC-90AACC74DC20}"/>
-    <hyperlink ref="U5" r:id="rId3" xr:uid="{9CEEA3AD-113D-4357-B22F-D2FEE8CC9516}"/>
-    <hyperlink ref="U10" r:id="rId4" xr:uid="{DEA4C0FC-F6B9-456E-A17E-CB3273D0DF0B}"/>
-    <hyperlink ref="U12" r:id="rId5" xr:uid="{E5992BB4-2E56-47F0-B80A-B27C7E959A05}"/>
-    <hyperlink ref="U8" r:id="rId6" xr:uid="{E0065EAF-64E5-46A4-B1A5-607D4532CC13}"/>
-    <hyperlink ref="U11" r:id="rId7" xr:uid="{7AE3504B-FBB6-4FC4-951F-54322724D58C}"/>
-    <hyperlink ref="U15" r:id="rId8" xr:uid="{3F518524-5AFC-474C-8478-6647ABAD0655}"/>
-    <hyperlink ref="U16" r:id="rId9" xr:uid="{13357DE6-60ED-46FB-B9AC-CBF96A355983}"/>
-    <hyperlink ref="U7" r:id="rId10" xr:uid="{DD53F866-C9B9-4928-AB30-0AC0EE693BED}"/>
-    <hyperlink ref="U14" r:id="rId11" xr:uid="{38D8A440-401C-4DAB-904C-82EE954B8358}"/>
-    <hyperlink ref="U17" r:id="rId12" xr:uid="{63226D5B-0B64-41CA-B594-D851B6C7B911}"/>
-    <hyperlink ref="U9" r:id="rId13" xr:uid="{C9E13D81-CFB8-42AE-B3CB-D37F10311C0B}"/>
-    <hyperlink ref="U3" r:id="rId14" xr:uid="{B520A89B-7418-406B-9E72-C3B8A72F352A}"/>
-    <hyperlink ref="U13" r:id="rId15" xr:uid="{ED10C215-181C-426E-BABA-FBB9935EB616}"/>
-    <hyperlink ref="U2" r:id="rId16" xr:uid="{FD534B80-DFC8-45B1-B54C-BBD8E2CFE706}"/>
+    <hyperlink ref="V4" r:id="rId1" xr:uid="{D6781A03-1F66-471F-973A-BDB4AA795855}"/>
+    <hyperlink ref="V6" r:id="rId2" xr:uid="{E32AAA98-1363-4ED2-A6DC-90AACC74DC20}"/>
+    <hyperlink ref="V5" r:id="rId3" xr:uid="{9CEEA3AD-113D-4357-B22F-D2FEE8CC9516}"/>
+    <hyperlink ref="V10" r:id="rId4" xr:uid="{DEA4C0FC-F6B9-456E-A17E-CB3273D0DF0B}"/>
+    <hyperlink ref="V12" r:id="rId5" xr:uid="{E5992BB4-2E56-47F0-B80A-B27C7E959A05}"/>
+    <hyperlink ref="V8" r:id="rId6" xr:uid="{E0065EAF-64E5-46A4-B1A5-607D4532CC13}"/>
+    <hyperlink ref="V11" r:id="rId7" xr:uid="{7AE3504B-FBB6-4FC4-951F-54322724D58C}"/>
+    <hyperlink ref="V15" r:id="rId8" xr:uid="{3F518524-5AFC-474C-8478-6647ABAD0655}"/>
+    <hyperlink ref="V16" r:id="rId9" xr:uid="{13357DE6-60ED-46FB-B9AC-CBF96A355983}"/>
+    <hyperlink ref="V7" r:id="rId10" xr:uid="{DD53F866-C9B9-4928-AB30-0AC0EE693BED}"/>
+    <hyperlink ref="V14" r:id="rId11" xr:uid="{38D8A440-401C-4DAB-904C-82EE954B8358}"/>
+    <hyperlink ref="V17" r:id="rId12" xr:uid="{63226D5B-0B64-41CA-B594-D851B6C7B911}"/>
+    <hyperlink ref="V9" r:id="rId13" xr:uid="{C9E13D81-CFB8-42AE-B3CB-D37F10311C0B}"/>
+    <hyperlink ref="V3" r:id="rId14" xr:uid="{B520A89B-7418-406B-9E72-C3B8A72F352A}"/>
+    <hyperlink ref="V13" r:id="rId15" xr:uid="{ED10C215-181C-426E-BABA-FBB9935EB616}"/>
+    <hyperlink ref="V2" r:id="rId16" xr:uid="{FD534B80-DFC8-45B1-B54C-BBD8E2CFE706}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/CD_P1_2025.xlsx
+++ b/CD_P1_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ano_2025S1\CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76B8204-7026-48F6-8AD8-06F133C2A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ADCCE1-5F33-4D60-A5AF-9EDD269C9278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,14 +23,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ex1'!$A$1:$AS$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'P1'!$A$1:$C$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'P1'!$C$18:$C$42</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'P1'!$C$1:$C$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'P1'!$B$18:$B$42</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'P1'!$B$1:$B$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'P1'!$C$18:$C$42</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'P1'!$C$1:$C$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'P1'!$C$18:$C$42</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'P1'!$C$1:$C$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2611,9 +2603,6 @@
     <xf numFmtId="165" fontId="14" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2632,7 +2621,10 @@
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2641,14 +2633,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2872,6 +2856,10 @@
           <color rgb="FFF8F9FA"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -3124,6 +3112,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -3202,21 +3194,21 @@
     <tableColumn id="22" xr3:uid="{366CC569-4821-4775-B592-A875645373E0}" name="Nota" dataDxfId="18">
       <calculatedColumnFormula>Form_Responses1[[#This Row],[Pontos]]/7*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9E2E1ABE-F442-4D86-9EDE-D990ED657722}" name="Notebook Check" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{9E2E1ABE-F442-4D86-9EDE-D990ED657722}" name="Notebook Check" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Q1. Forneça os 3 proprietários (&quot;hosts&quot;) com mais imóveis sendo anunciados na plataforma, e a respectiva quantidade de imóveis anunciados._x000a__x000a_Ex: John,9;Alice,5;Daniel,4"/>
-    <tableColumn id="13" xr3:uid="{2A034FCD-48AC-41B3-B219-B296573F175E}" name="Q1" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{2A034FCD-48AC-41B3-B219-B296573F175E}" name="Q1" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Q2A. Qual a diferença do preço médio dos imóveis dos anunciantes com mais de um imóvel e dos anunciantes com um único imóvel anunciado na plataforma?_x000a__x000a_Ex. 78.81"/>
-    <tableColumn id="15" xr3:uid="{5E806EA6-B4A9-4768-AB7D-B2042760188D}" name="Q2" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{5E806EA6-B4A9-4768-AB7D-B2042760188D}" name="Q2" dataDxfId="15"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Q3A. Manhattan outliers. Qual o percentual de imóveis de Manhattan com preços estatisticamente discrepantes (outliers) com relação aos preços de todos os imóveis?_x000a__x000a_Ex. 21.05"/>
-    <tableColumn id="16" xr3:uid="{2CC0D645-5C9E-4F1A-9A81-D95B9C01A9F8}" name="Q3" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{2CC0D645-5C9E-4F1A-9A81-D95B9C01A9F8}" name="Q3" dataDxfId="14"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Q4A. Qual a palavra que nos anúncios que apresenta o maior e menor preços médios? (valores truncados)_x000a__x000a_Ex. beatiful,141.90;sunny,122.35"/>
-    <tableColumn id="17" xr3:uid="{4409B055-3AD1-4CB5-9FDE-3A694D4D9385}" name="Q4" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{4409B055-3AD1-4CB5-9FDE-3A694D4D9385}" name="Q4" dataDxfId="13"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Q5. Qual o preço médio de Taxes e Fines para o Bairro do Manhattan? (valor inteiro, astype(int))_x000a__x000a_Ex. 1008,101"/>
-    <tableColumn id="18" xr3:uid="{0D6B9F19-6116-481A-9C20-DBCC9703AEC3}" name="Q5" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{0D6B9F19-6116-481A-9C20-DBCC9703AEC3}" name="Q5" dataDxfId="12"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Q6A. A soma dos preços das páginas 1, 24, 25 e 28 é:  _x000a__x000a_Ex. 11620"/>
-    <tableColumn id="19" xr3:uid="{BB0ED3B6-73DB-4A39-8EB3-E4A9087685FD}" name="Q6" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{BB0ED3B6-73DB-4A39-8EB3-E4A9087685FD}" name="Q6" dataDxfId="11"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Q7. Considere as fases do processo CRISP DM. Relacione ao menos 6 tarefas presentes na preparação dos dados."/>
-    <tableColumn id="20" xr3:uid="{192BD007-2B99-4E1E-8EC0-DCF1C0ACF411}" name="Q7" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{192BD007-2B99-4E1E-8EC0-DCF1C0ACF411}" name="Q7" dataDxfId="10"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Poste aqui o link do seu notebook Colab compartilhado como público no seu Drive ou no GitHub._x000a__x000a_Ex. _x000a_https://colab.research.google.com/drive/1cJJWfFTIJ_iWYw7t1VPlPOFBsv9XsCWF#scrollTo=edfpleAbtOzo_x000a__x000a_OU _x000a__x000a_https://github.com/Rogerio-mack/IMT_CD_2025/blob/main"/>
   </tableColumns>
   <tableStyleInfo name="Respostas ao formulário 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3234,27 +3226,27 @@
     <tableColumn id="2" xr3:uid="{FF31EA1C-966B-43DD-837F-A061528FA96C}" name="Endereço de e-mail"/>
     <tableColumn id="3" xr3:uid="{3B82E203-1B43-4FC7-8AC4-C2AED1E3D0A2}" name="Nome_x000a_"/>
     <tableColumn id="4" xr3:uid="{428E8045-6239-4F6F-A009-3618741209A0}" name="RA_x000a_"/>
-    <tableColumn id="21" xr3:uid="{2404164F-6548-4300-B3EA-AABD8BBE5DDD}" name="Pontos" dataDxfId="10">
+    <tableColumn id="21" xr3:uid="{2404164F-6548-4300-B3EA-AABD8BBE5DDD}" name="Pontos" dataDxfId="9">
       <calculatedColumnFormula>SUM(I2,K2,M2,O2,Q2,S2,U2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B6138BC5-F865-48F2-97E7-F9554B2D2C19}" name="Nota" dataDxfId="9">
+    <tableColumn id="22" xr3:uid="{B6138BC5-F865-48F2-97E7-F9554B2D2C19}" name="Nota" dataDxfId="8">
       <calculatedColumnFormula>Form_Responses13[[#This Row],[Pontos]]/7*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F1C594E5-4B18-43FA-A3BB-4CEE6E44FD22}" name="Notebook Check" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{F1C594E5-4B18-43FA-A3BB-4CEE6E44FD22}" name="Notebook Check" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{D1ADEBE1-0736-4C42-A578-721B12F8BF34}" name="Q1. Forneça os 3 proprietários (&quot;hosts&quot;) com mais imóveis sendo anunciados na plataforma, e a respectiva quantidade de imóveis anunciados._x000a__x000a_Ex: John,9;Alice,5;Daniel,4"/>
-    <tableColumn id="14" xr3:uid="{4FCC4469-EEAC-4693-9921-5CBA6247CC33}" name="Q1" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{4FCC4469-EEAC-4693-9921-5CBA6247CC33}" name="Q1" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{CD12B498-88CB-4567-86D5-A0B439A54A1B}" name="Q2B. Qual o preço médio dos imóveis em bairros com mais de 20 anúncios? _x000a__x000a_Ex. 178.81"/>
-    <tableColumn id="15" xr3:uid="{510BA15D-2FFB-467C-8AA5-31BEB4E46D93}" name="Q2" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{510BA15D-2FFB-467C-8AA5-31BEB4E46D93}" name="Q2" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{AFE072FE-AE23-4714-817E-7BF23FB49BA3}" name="Q3B. Brooklyn outliers. Qual o percentual de imóveis de Brooklyn com preços estatisticamente discrepantes (outliers) com relação aos preços de todos os imóveis?_x000a__x000a_Ex. 21.05"/>
-    <tableColumn id="16" xr3:uid="{1DF3AE3E-F5EB-42B5-A44E-258162F06B7F}" name="Q3" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{1DF3AE3E-F5EB-42B5-A44E-258162F06B7F}" name="Q3" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{ACF8FD49-7DA6-457C-9C1B-AEDD792BC87E}" name="Q4B. Qual a soma dos valores de score obtida?_x000a__x000a_Ex. 11956"/>
-    <tableColumn id="17" xr3:uid="{91D7DC95-3200-4E5D-BDA6-2184DE0DB61E}" name="Q4" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{91D7DC95-3200-4E5D-BDA6-2184DE0DB61E}" name="Q4" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{600B666A-C3F5-43C4-B4EE-213BEC6A23FC}" name="Q5. Qual o preço médio de Taxes e Fines para o Bairro do Manhattan? (valor inteiro, astype(int))_x000a__x000a_Ex. 1008,101"/>
-    <tableColumn id="18" xr3:uid="{B118A0DF-FD04-4B74-B4FE-D300437F17BA}" name="Q5" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{B118A0DF-FD04-4B74-B4FE-D300437F17BA}" name="Q5" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{70C96337-526E-4031-A2EF-0CFB6EF8095B}" name="Q6B. A soma dos preços das páginas 1, 24, 25, 26 e 28 é:  _x000a__x000a_Ex. 11620"/>
-    <tableColumn id="19" xr3:uid="{DD33CCBB-831B-4E9C-AFE7-717699B2AD6F}" name="Q6" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{DD33CCBB-831B-4E9C-AFE7-717699B2AD6F}" name="Q6" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{6AF0495A-EC1D-47BB-97E7-14F30C836E05}" name="Q7. Considere as fases do processo CRISP DM. Relacione ao menos 6 tarefas presentes na preparação dos dados."/>
-    <tableColumn id="20" xr3:uid="{D1F8FDD4-99B2-4EA8-89AC-5988A6FB6B6B}" name="Q7" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{D1F8FDD4-99B2-4EA8-89AC-5988A6FB6B6B}" name="Q7" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{72B036A0-ABAA-4E8A-B141-FC774DD1E8C1}" name="Poste aqui o link do seu notebook Colab compartilhado como público no seu Drive ou no GitHub._x000a__x000a_Ex. _x000a_https://colab.research.google.com/drive/1cJJWfFTIJ_iWYw7t1VPlPOFBsv9XsCWF#scrollTo=edfpleAbtOzo_x000a__x000a_OU _x000a__x000a_https://github.com/Rogerio-mack/IMT_CD_2025/blob/main"/>
   </tableColumns>
   <tableStyleInfo name="Respostas ao formulário 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3461,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DED7A69-553F-4840-BDB5-5C92623A5DCE}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3528,7 +3520,7 @@
         <f>(E2+G2)/2</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="91" t="s">
         <v>598</v>
       </c>
     </row>
@@ -3968,7 +3960,7 @@
       <c r="B19" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="86">
         <v>7.9</v>
       </c>
       <c r="D19" s="59" t="s">
@@ -4049,7 +4041,7 @@
       <c r="B22" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="88">
         <v>3.6</v>
       </c>
       <c r="D22" s="57" t="s">
@@ -4130,8 +4122,8 @@
       <c r="B25" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="90">
-        <v>2.9</v>
+      <c r="C25" s="89">
+        <v>4.3</v>
       </c>
       <c r="D25" s="71" t="s">
         <v>254</v>
@@ -4238,7 +4230,7 @@
       <c r="B29" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="86">
         <v>1.4</v>
       </c>
       <c r="D29" s="59" t="s">
@@ -4265,7 +4257,7 @@
       <c r="B30" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="90">
+      <c r="C30" s="89">
         <v>5.7</v>
       </c>
       <c r="D30" s="71" t="s">
@@ -4508,7 +4500,7 @@
       <c r="B39" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="86">
         <v>2.1428571428571428</v>
       </c>
       <c r="D39" s="59" t="s">
@@ -4579,8 +4571,8 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5243,7 +5235,7 @@
       <c r="D11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="85">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
@@ -5501,7 +5493,7 @@
       <c r="D15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="85">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -5520,7 +5512,7 @@
         <v>107</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="88" t="s">
+      <c r="L15" s="87" t="s">
         <v>60</v>
       </c>
       <c r="M15" s="78">
@@ -6094,7 +6086,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6326,7 +6318,7 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="82">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>3.5714285714285716</v>
       </c>
@@ -6772,11 +6764,11 @@
       </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="82">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
-        <v>2.8571428571428568</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="G11" s="80" t="s">
         <v>596</v>
@@ -6800,7 +6792,9 @@
       <c r="N11" s="39">
         <v>10940</v>
       </c>
-      <c r="O11" s="40"/>
+      <c r="O11" s="40">
+        <v>1</v>
+      </c>
       <c r="P11" s="39" t="s">
         <v>258</v>
       </c>
@@ -6811,7 +6805,7 @@
       <c r="S11" s="40"/>
       <c r="T11" s="39"/>
       <c r="U11" s="40"/>
-      <c r="V11" s="43" t="s">
+      <c r="V11" s="92" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6956,7 +6950,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="90">
         <f>Form_Responses13[[#This Row],[Pontos]]/7*10</f>
         <v>5</v>
       </c>
